--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18810DD4-1F1F-4BC3-BA7F-7C21B8FE3DFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539FBE4F-618F-473C-B8F6-60C53EC7EE41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29955" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <t>The network is busy. Please try again later.</t>
   </si>
   <si>
-    <t>network_busy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${PLAYER1} used ${ITEM} for ${PLAYER2}.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,7 +85,279 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use_item</t>
+    <t>对应界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BikeScene.scene.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlocked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawScene.scene.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawScene.scene.json
+GameOverScene.scene.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reborn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameOverScene.scene.json</t>
+  </si>
+  <si>
+    <t>复活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sliding Up and Down to Adjust Resurrection Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上下移动调整复活位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameScene.scene.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeScene.scene.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartRemove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启删除模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndRemove</t>
+  </si>
+  <si>
+    <t>EndRemove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭删除模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>已选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BikeScene.scene.json
+HomeScene.scene.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RankScene.scene.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farthest Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最远里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前排行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Time</t>
+  </si>
+  <si>
+    <t>上次排行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的排行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopScene.scene.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeScene.scene.json
+ShopScene.scene.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已拥有</t>
+  </si>
+  <si>
+    <t>TipScene.scene.json</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkBusy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResurrectionPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FarthestDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyRank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +379,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,8 +422,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -415,81 +710,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="38.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539FBE4F-618F-473C-B8F6-60C53EC7EE41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110A8939-5632-42B0-B458-1E0D42DC5DED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29955" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="45" windowWidth="26235" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>インターネットが忙しいので、後でやり直してください。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The network is busy. Please try again later.</t>
   </si>
   <si>
@@ -77,15 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${PLAYER1} は ${PLAYER2} に ${ITEM} を使いました。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${PLAYER1} 对 ${PLAYER2} 使用了 ${ITEM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Now</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,6 +343,89 @@
   <si>
     <t>MyRank</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 积 分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应界面（策划内部看的）</t>
+  </si>
+  <si>
+    <t>${PLAYER1} は ${PLAYER2} に ${ITEM} を使いました。</t>
+  </si>
+  <si>
+    <t>ネットワークがビジー状態で、少し時間をおいて再度お試しください。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アンロックしていません。</t>
+  </si>
+  <si>
+    <t>選択可能</t>
+  </si>
+  <si>
+    <t>選択済み</t>
+  </si>
+  <si>
+    <t>レベル</t>
+  </si>
+  <si>
+    <t>アンロックしていました。</t>
+  </si>
+  <si>
+    <t>レベル　アップ</t>
+  </si>
+  <si>
+    <t>無料</t>
+  </si>
+  <si>
+    <t>くじ引き</t>
+  </si>
+  <si>
+    <t>復活</t>
+  </si>
+  <si>
+    <t>上や下に移動して復活の位置を調整することができます。</t>
+  </si>
+  <si>
+    <t>画面が表示されます。</t>
+  </si>
+  <si>
+    <t>画面が隠されます。</t>
+  </si>
+  <si>
+    <t>「削除」モード　オン</t>
+  </si>
+  <si>
+    <t>「削除」モード　オフ</t>
+  </si>
+  <si>
+    <t>全部リセット</t>
+  </si>
+  <si>
+    <t>累計のマイレージ</t>
+  </si>
+  <si>
+    <t>最長の距離</t>
+  </si>
+  <si>
+    <t>ポイント</t>
+  </si>
+  <si>
+    <t>現在のランキング</t>
+  </si>
+  <si>
+    <t>前回のランキング</t>
+  </si>
+  <si>
+    <t>自分のランク</t>
+  </si>
+  <si>
+    <t>持っているもの</t>
+  </si>
+  <si>
+    <t>確認</t>
   </si>
 </sst>
 </file>
@@ -424,11 +491,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,476 +786,528 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="3"/>
+      <c r="E28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110A8939-5632-42B0-B458-1E0D42DC5DED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB34F9C0-C061-47A5-9CEC-53891371B830}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="45" windowWidth="26235" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29955" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="221">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,14 +73,6 @@
   </si>
   <si>
     <t>The network is busy. Please try again later.</t>
-  </si>
-  <si>
-    <t>${PLAYER1} used ${ITEM} for ${PLAYER2}.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${PLAYER1} 对 ${PLAYER2} 使用了 ${ITEM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BikeScene.scene.json</t>
@@ -345,16 +343,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 积 分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对应界面（策划内部看的）</t>
   </si>
   <si>
-    <t>${PLAYER1} は ${PLAYER2} に ${ITEM} を使いました。</t>
-  </si>
-  <si>
     <t>ネットワークがビジー状態で、少し時間をおいて再度お試しください。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,13 +417,444 @@
   </si>
   <si>
     <t>確認</t>
+  </si>
+  <si>
+    <t>Requesting rank data</t>
+  </si>
+  <si>
+    <t>请求排行榜数据中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestingRankData</t>
+  </si>
+  <si>
+    <t>Not Listed</t>
+  </si>
+  <si>
+    <t>未上榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotListed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${player1} 对 ${player2} 使用了 ${item}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${player1} used ${item} for ${player2}.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${player1} は ${player2} に ${item} を使いました。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restart after ${time}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 ${time} 之后重新开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartAfterTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock All Bike</t>
+  </si>
+  <si>
+    <t>UnlockAllBike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁所有的自行车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopScene.scene.json</t>
+  </si>
+  <si>
+    <t>Unlock All Endless Scene</t>
+  </si>
+  <si>
+    <t>UnlockAllEndlessScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁所有的无尽模式场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>礼物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${money} Money 
+= ${diamond} Diamond + ${coin} Gold Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond is not enough!</t>
+  </si>
+  <si>
+    <t>钻石不足！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondIsNotEnough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史总里程达到 ${distance}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalDistanceReach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backgrounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floors</t>
+  </si>
+  <si>
+    <t>Spoils</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战利品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to delete this item?</t>
+  </si>
+  <si>
+    <t>ConfirmDeleteHomeItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money2DCPresentDsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to delete all items?</t>
+  </si>
+  <si>
+    <t>确定要删除所有的物品吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定要删除这个物品吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmDeleteAllHomeItem</t>
+  </si>
+  <si>
+    <t>Are you really sure you want to DELETE ALL ITEMS?</t>
+  </si>
+  <si>
+    <t>真的确定要删除所有的物品吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmDeleteAllHomeItemAgain</t>
+  </si>
+  <si>
+    <t>This item is able to unlock.</t>
+  </si>
+  <si>
+    <t>这个物品可以解锁了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIsAbleToUnlock</t>
+  </si>
+  <si>
+    <t>Unlock condition(s):</t>
+  </si>
+  <si>
+    <t>UnlockConditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock Reward(s):</t>
+  </si>
+  <si>
+    <t>解锁奖励：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockRewards</t>
+  </si>
+  <si>
+    <t>Would you like to cost the following items to unlock this item?</t>
+  </si>
+  <si>
+    <t>是否愿意花费一下物品来解锁这个物品？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you like to cost the following items to unlock this item?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${money} 钱
+= ${diamond} 钻石 + ${coin} 金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total distance reached ${distance}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost is not enough!</t>
+  </si>
+  <si>
+    <t>没有足够的金币或者钻石！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This item is locked.</t>
+  </si>
+  <si>
+    <t>这个物品未解锁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${0} Gold Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${0} Diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need to unlock ${0}</t>
+  </si>
+  <si>
+    <t>Total distance required to reach ${0}m</t>
+  </si>
+  <si>
+    <t>Total farthest distance required to reach ${0}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score required to reach ${0}</t>
+  </si>
+  <si>
+    <t>Need to rank ${0}st in total distance</t>
+  </si>
+  <si>
+    <t>Need to rank ${0}st in farthest distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need to rank ${0}st in score</t>
+  </si>
+  <si>
+    <t>${0} 金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${0} 钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要解锁 ${0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史总里程达到 ${0}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最远里程达到 ${0}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史总分达到 ${0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名总里程到达过第${0}名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名最远里程到达过第${0}名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名总分到达过第${0}名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highest Level</t>
+  </si>
+  <si>
+    <t>最高等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已经骑了${distance}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have ridden ${distance} meters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>空气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leveling with the highest record</t>
+  </si>
+  <si>
+    <t>和你的最高纪录打平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${player} New Record: ${distance}m</t>
+  </si>
+  <si>
+    <t>${player} 新纪录: ${distance}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${diff} meters more to go beyond yourself</t>
+  </si>
+  <si>
+    <t>还差${diff}就能超越自己的纪录了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${player} current rank total score: ${score}</t>
+  </si>
+  <si>
+    <t>${player} 当前排行榜总积分： ${score}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You only get the last prize after surrender, are you sure?</t>
+  </si>
+  <si>
+    <t>现在结束游戏的话，
+你只能获得最后一名的奖励，
+你确定吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to quit the game?  The current game data will be saved automatically after exit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定退出游戏吗？
+当前的游戏数据会自动保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure to restart the game? The current game data will be saved automatically after exit.</t>
+  </si>
+  <si>
+    <t>确定重新开始游戏吗？
+当前的游戏数据会自动保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${player} Record: ${record}m</t>
+  </si>
+  <si>
+    <t>${player} 纪录: ${record}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,22 +870,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Microsoft YaHei Light"/>
       <family val="2"/>
       <charset val="134"/>
@@ -489,19 +896,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,27 +1184,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="48.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="30.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -811,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -823,7 +1224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -843,12 +1244,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+        <v>72</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
@@ -856,458 +1255,1008 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="D42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="E76" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -3,30 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB34F9C0-C061-47A5-9CEC-53891371B830}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCBB242-CF22-41E2-8CBD-218068DD720D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29955" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="375" windowWidth="26235" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="221">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,26 +479,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解锁所有的无尽模式场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Present</t>
   </si>
   <si>
-    <t>礼物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Present</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Money</t>
-  </si>
-  <si>
-    <t>货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Map</t>
@@ -550,10 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>历史总里程达到 ${distance}m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TotalDistanceReach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,10 +645,6 @@
   </si>
   <si>
     <t>Would you like to cost the following items to unlock this item?</t>
-  </si>
-  <si>
-    <t>是否愿意花费一下物品来解锁这个物品？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Would you like to cost the following items to unlock this item?</t>
@@ -743,27 +717,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>历史总里程达到 ${0}m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>历史最远里程达到 ${0}m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史总分达到 ${0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名总里程到达过第${0}名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名最远里程到达过第${0}名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名总分到达过第${0}名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -847,6 +801,45 @@
   </si>
   <si>
     <t>${player} 纪录: ${record}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否愿意花费以下这些来解锁这个物品？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史累计里程排行到达过第${0}名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最远里程排行到达过第${0}名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史积分排行到达过第${0}名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史积分达到 ${0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总里程达到 ${0}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总里程达到 ${distance}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼物</t>
+  </si>
+  <si>
+    <t>解锁所有的无尽旅程地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,13 +889,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,23 +1174,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="33" style="1" customWidth="1"/>
     <col min="7" max="16384" width="30.5" style="1"/>
   </cols>
   <sheetData>
@@ -1244,7 +1232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -1589,7 +1577,7 @@
         <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>54</v>
@@ -1747,516 +1735,512 @@
         <v>120</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="E70" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    <row r="72" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    </row>
+    <row r="73" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="E76" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB34F9C0-C061-47A5-9CEC-53891371B830}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A469EE-EDFF-4315-B35F-4BB2C3B66B81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29955" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="228">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -708,9 +708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Need to unlock ${0}</t>
-  </si>
-  <si>
     <t>Total distance required to reach ${0}m</t>
   </si>
   <si>
@@ -736,10 +733,6 @@
   </si>
   <si>
     <t>${0} 钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要解锁 ${0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -847,6 +840,40 @@
   </si>
   <si>
     <t>${player} 纪录: ${record}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want log out?</t>
+  </si>
+  <si>
+    <t>Do you want log out?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要登出账号吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Coin is not enough!</t>
+  </si>
+  <si>
+    <t>金币不足！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need to unlock Map${0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要解锁 地图${0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,8 +928,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,13 +1211,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -2039,7 +2066,7 @@
         <v>181</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>181</v>
@@ -2050,7 +2077,7 @@
         <v>182</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>182</v>
@@ -2058,205 +2085,234 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>199</v>
+      <c r="E65" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E69" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A469EE-EDFF-4315-B35F-4BB2C3B66B81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF8F619-C787-458E-A6F9-B8DEFD3A902A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29955" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="245">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -869,11 +869,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图</t>
+    <t>BikeDsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusDsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【No.${index} 自行车】
+速度     ${speed}%
+跳跃力   ${jump}%
+连续跳跃 ${highJump}
+大小     ${size}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Coin ${coin}
+Distance  ${distance}
+Score     ${score}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>No.${index} bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Speed     ${speed}%
+Jump      ${jump}%
+HighJump  ${highJump}
+Size      ${size}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">     ${coin}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">     ${distance}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>积分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">     ${score}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,7 +1048,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,6 +1066,24 @@
     <font>
       <sz val="12"/>
       <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="SimSun-ExtB"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="SimSun-ExtB"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -923,12 +1108,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1211,1108 +1405,1365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="30.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="51.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" ht="74.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F85" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -3,30 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF8F619-C787-458E-A6F9-B8DEFD3A902A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80DAC15-DF76-41E9-8D0C-910CCEA4C7F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="0" windowWidth="26235" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="245">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,10 +479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解锁所有的无尽模式场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Present</t>
   </si>
   <si>
@@ -501,10 +491,6 @@
   </si>
   <si>
     <t>Money</t>
-  </si>
-  <si>
-    <t>货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Map</t>
@@ -550,10 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>历史总里程达到 ${distance}m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TotalDistanceReach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,10 +649,6 @@
   </si>
   <si>
     <t>Would you like to cost the following items to unlock this item?</t>
-  </si>
-  <si>
-    <t>是否愿意花费一下物品来解锁这个物品？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Would you like to cost the following items to unlock this item?</t>
@@ -736,27 +714,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>历史总里程达到 ${0}m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>历史最远里程达到 ${0}m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史总分达到 ${0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名总里程到达过第${0}名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名最远里程到达过第${0}名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名总分到达过第${0}名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -928,119 +886,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【No.${index} 自行车】
+    <t>Gold Coin ${coin}
+Distance  ${distance}
+Score     ${score}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史累计里程排行到达过第${0}名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最远里程排行到达过第${0}名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史积分排行到达过第${0}名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史积分达到 ${0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总里程达到 ${0}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总里程达到 ${distance}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁所有的无尽旅程地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否愿意花费以下这些来解锁这个物品？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【No.${index} 自行车】
 速度     ${speed}%
 跳跃力   ${jump}%
 连续跳跃 ${highJump}
-大小     ${size}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold Coin ${coin}
-Distance  ${distance}
-Score     ${score}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>No.${index} bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">】
 </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="SimSun-ExtB"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Speed     ${speed}%
-Jump      ${jump}%
-HighJump  ${highJump}
-Size      ${size}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金币</t>
+      <t>体积</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="SimSun-ExtB"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">     ${coin}
-</t>
+      <t xml:space="preserve">     ${size}</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>里程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">     ${distance}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>积分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">     ${score}</t>
-    </r>
+  </si>
+  <si>
+    <t>【No.${index} bike】
+Speed     ${speed}%
+Jump      ${jump}%
+HighJump  ${highJump}
+Size      ${size}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币     ${coin}
+里程     ${distance}
+积分     ${score}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,7 +974,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,26 +991,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Microsoft YaHei Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="SimSun-ExtB"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="SimSun-ExtB"/>
-      <family val="2"/>
+      <color rgb="FFFF00FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1108,21 +1023,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1131,6 +1037,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1411,10 +1322,10 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="1" bestFit="1" customWidth="1"/>
@@ -1426,1344 +1337,1164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+      <c r="D34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="D35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="E47" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="E55" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
+      <c r="D56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="D57" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
+      <c r="D59" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="D60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
+      <c r="E65" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="E66" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
+      <c r="E80" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="E81" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2" t="s">
+      <c r="D82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="D83" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="D84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" ht="74.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2" t="s">
+    </row>
+    <row r="85" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" ht="51.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F85" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF8F619-C787-458E-A6F9-B8DEFD3A902A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A29D55-CDA9-400A-9A43-039B42DAC0BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29955" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="248">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,105 +942,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>No.${index} bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Speed     ${speed}%
+    <t>【No.${index} bike】
+Speed     ${speed}%
 Jump      ${jump}%
 HighJump  ${highJump}
 Size      ${size}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">     ${coin}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>里程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">     ${distance}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>积分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">     ${score}</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币     ${coin}
+里程     ${distance}
+积分     ${score}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelDsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级     ${level}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV        ${level}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,7 +972,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,20 +995,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="SimSun-ExtB"/>
+      <name val="黑体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="SimSun-ExtB"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1108,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1118,12 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1405,22 +1311,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="30.5" style="1"/>
   </cols>
@@ -2011,7 +1917,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>155</v>
       </c>
@@ -2597,7 +2503,7 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>213</v>
       </c>
@@ -2653,7 +2559,7 @@
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="74.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>226</v>
       </c>
@@ -2662,108 +2568,122 @@
       <c r="D78" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>228</v>
+      <c r="A79" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>228</v>
+        <v>246</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>239</v>
+      <c r="A81" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="5" t="s">
-        <v>235</v>
+      <c r="D82" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" ht="51.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="4" t="s">
-        <v>244</v>
+      <c r="D85" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F86" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -3,23 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A29D55-CDA9-400A-9A43-039B42DAC0BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04831A8-CB46-47CC-B33D-68F42C5648B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29955" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="480" windowWidth="26235" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -485,10 +479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解锁所有的无尽模式场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Present</t>
   </si>
   <si>
@@ -501,10 +491,6 @@
   </si>
   <si>
     <t>Money</t>
-  </si>
-  <si>
-    <t>货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Map</t>
@@ -550,10 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>历史总里程达到 ${distance}m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TotalDistanceReach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,10 +649,6 @@
   </si>
   <si>
     <t>Would you like to cost the following items to unlock this item?</t>
-  </si>
-  <si>
-    <t>是否愿意花费一下物品来解锁这个物品？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Would you like to cost the following items to unlock this item?</t>
@@ -736,27 +714,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>历史总里程达到 ${0}m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>历史最远里程达到 ${0}m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史总分达到 ${0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名总里程到达过第${0}名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名最远里程到达过第${0}名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名总分到达过第${0}名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -925,14 +883,6 @@
   </si>
   <si>
     <t>BonusDsc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【No.${index} 自行车】
-速度     ${speed}%
-跳跃力   ${jump}%
-连续跳跃 ${highJump}
-大小     ${size}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -967,12 +917,76 @@
     <t>LV        ${level}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>解锁所有的无尽旅程地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总里程达到 ${distance}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否愿意花费以下这些来解锁这个物品？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总里程达到 ${0}m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史积分达到 ${0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史累计里程排行到达过第${0}名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最远里程排行到达过第${0}名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史积分排行到达过第${0}名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【No.${index} 自行车】
+速度     ${speed}%
+跳跃力   ${jump}%
+连续跳跃 ${highJump}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>体积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">     ${size}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,6 +1013,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF00FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF00FF"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1020,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1031,12 +1059,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1314,10 +1350,10 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -1738,7 +1774,7 @@
         <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>54</v>
@@ -1909,8 +1945,8 @@
       <c r="C33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>123</v>
+      <c r="D33" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>121</v>
@@ -1919,769 +1955,769 @@
     </row>
     <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>128</v>
+      <c r="D36" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>140</v>
+      <c r="D41" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>173</v>
+      <c r="D53" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2" t="s">
-        <v>191</v>
+      <c r="D59" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>193</v>
+      <c r="D61" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>194</v>
+      <c r="D62" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
-        <v>195</v>
+      <c r="D63" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>196</v>
+      <c r="D64" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F86" s="2"/>
     </row>
